--- a/data/PFC.xlsx
+++ b/data/PFC.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H496"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13303,6 +13303,84 @@
         <v>6506.47</v>
       </c>
     </row>
+    <row r="497" spans="1:8">
+      <c r="A497" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B497">
+        <v>135.75</v>
+      </c>
+      <c r="C497">
+        <v>137.7</v>
+      </c>
+      <c r="D497">
+        <v>133.8</v>
+      </c>
+      <c r="E497">
+        <v>135.5</v>
+      </c>
+      <c r="F497">
+        <v>135.45</v>
+      </c>
+      <c r="G497">
+        <v>4765498</v>
+      </c>
+      <c r="H497">
+        <v>6458.41</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="2">
+        <v>42776</v>
+      </c>
+      <c r="B498">
+        <v>136.3</v>
+      </c>
+      <c r="C498">
+        <v>137</v>
+      </c>
+      <c r="D498">
+        <v>134.4</v>
+      </c>
+      <c r="E498">
+        <v>134.9</v>
+      </c>
+      <c r="F498">
+        <v>135.2</v>
+      </c>
+      <c r="G498">
+        <v>3625290</v>
+      </c>
+      <c r="H498">
+        <v>4912.27</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="2">
+        <v>42779</v>
+      </c>
+      <c r="B499">
+        <v>135.3</v>
+      </c>
+      <c r="C499">
+        <v>136</v>
+      </c>
+      <c r="D499">
+        <v>130.9</v>
+      </c>
+      <c r="E499">
+        <v>134.2</v>
+      </c>
+      <c r="F499">
+        <v>134.45</v>
+      </c>
+      <c r="G499">
+        <v>5732261</v>
+      </c>
+      <c r="H499">
+        <v>7681.35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
